--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -2,25 +2,39 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382AA38D-5C53-4B1E-B622-642D11CAC6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37AD6DA-F1E0-45C9-9E6D-3F39E69658E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{31FFA309-7554-46CA-9395-EB2CDA5C2874}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Result ID</t>
   </si>
@@ -94,19 +108,31 @@
     <t>A0732302</t>
   </si>
   <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>A0732303</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>A0732303</t>
+    <t>Collection Date</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
     <t>a</t>
+  </si>
+  <si>
+    <t>A0781601</t>
+  </si>
+  <si>
+    <t>100900112</t>
+  </si>
+  <si>
+    <t>A07323021</t>
   </si>
 </sst>
 </file>
@@ -116,7 +142,7 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,14 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -179,44 +205,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -244,14 +270,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -279,6 +322,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -290,236 +350,178 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB53B6-AC60-48AD-8E6D-6D0A40F09465}">
+  <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.796875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="20.88671875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.44140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="9.77734375" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,37 +591,41 @@
       <c r="W1" t="s">
         <v>22</v>
       </c>
+      <c r="X1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" ht="15.6">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>23</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="15.6">
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="W3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.6">
+    <row r="4" spans="1:24">
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="15.6">
+    <row r="5" spans="1:24">
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:23" ht="15.6"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:W1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>A07323021</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
         <v>23</v>
       </c>
       <c r="W2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:24">

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -1,45 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F37AD6DA-F1E0-45C9-9E6D-3F39E69658E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79345DF4-CF71-451F-98D9-67AD579C07A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{31FFA309-7554-46CA-9395-EB2CDA5C2874}"/>
+    <workbookView xWindow="3552" yWindow="0" windowWidth="18924" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="35">
   <si>
     <t>Result ID</t>
   </si>
   <si>
-    <t>Site ID</t>
+    <t>Collection Site ID</t>
   </si>
   <si>
     <t>Kit Lot</t>
@@ -105,37 +91,40 @@
     <t>Run Lane</t>
   </si>
   <si>
+    <t>Collection Date</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>A1287605</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A1286705</t>
+  </si>
+  <si>
     <t>A0732302</t>
   </si>
   <si>
+    <t>A0732303</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>100900112</t>
+  </si>
+  <si>
+    <t>A1286705789</t>
+  </si>
+  <si>
+    <t>A0781601</t>
+  </si>
+  <si>
     <t>1.5</t>
-  </si>
-  <si>
-    <t>A0732303</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Collection Date</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>A0781601</t>
-  </si>
-  <si>
-    <t>100900112</t>
-  </si>
-  <si>
-    <t>A07323021</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -143,18 +132,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF212529"/>
-      <name val="OpenSans"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,15 +167,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -208,44 +197,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -273,31 +262,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -325,23 +297,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -353,178 +308,238 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CB53B6-AC60-48AD-8E6D-6D0A40F09465}">
-  <dimension ref="A1:X5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="20.88671875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="6.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="8.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="5.33203125" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="14.21875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="15.33203125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="9.77734375" collapsed="true"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.796875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -595,40 +610,41 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="W3" t="s">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:24">
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:X1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79345DF4-CF71-451F-98D9-67AD579C07A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F17853-27FC-4986-9340-E08D3CBB282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="0" windowWidth="18924" windowHeight="12504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="84" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Result ID</t>
   </si>
@@ -97,31 +97,13 @@
     <t/>
   </si>
   <si>
-    <t>A1287605</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>A1286705</t>
   </si>
   <si>
     <t>A0732302</t>
   </si>
   <si>
-    <t>A0732303</t>
-  </si>
-  <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>100900112</t>
-  </si>
-  <si>
-    <t>A1286705789</t>
-  </si>
-  <si>
-    <t>A0781601</t>
   </si>
   <si>
     <t>1.5</t>
@@ -131,7 +113,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -511,32 +492,32 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="9.796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="4" max="6" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.796875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="15.796875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="5.796875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.796875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="7.796875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.796875" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="4.796875" collapsed="true"/>
-    <col min="18" max="19" customWidth="true" width="11.796875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.796875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.796875" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="10.796875" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="8.796875" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="1" max="1" width="9.796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.796875" customWidth="1" collapsed="1"/>
+    <col min="4" max="6" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.796875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.796875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="8.796875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="5.796875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19.796875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="7.796875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="4.796875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.796875" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="4.796875" customWidth="1" collapsed="1"/>
+    <col min="18" max="19" width="11.796875" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.796875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="13.796875" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="10.796875" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="8.796875" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="15.796875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -615,15 +596,15 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -632,7 +613,7 @@
         <v>24</v>
       </c>
       <c r="W3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="32">
   <si>
     <t>Result ID</t>
   </si>
@@ -107,12 +107,22 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>100900112</t>
+  </si>
+  <si>
+    <t>A1286705789</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -497,27 +507,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.796875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.796875" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="13.796875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.796875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.796875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.796875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.796875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="5.796875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="19.796875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="7.796875" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="4.796875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.796875" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.796875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="4.796875" customWidth="1" collapsed="1"/>
-    <col min="18" max="19" width="11.796875" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.796875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="13.796875" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10.796875" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="8.796875" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.796875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="9.796875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="4" max="6" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.796875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="15.796875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="5.796875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="19.796875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="7.796875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.796875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="4.796875" collapsed="true"/>
+    <col min="18" max="19" customWidth="true" width="11.796875" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.796875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.796875" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.796875" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="8.796875" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="15.796875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -596,7 +606,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
         <v>27</v>
@@ -604,7 +614,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F17853-27FC-4986-9340-E08D3CBB282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24327202-95FD-4D1B-963D-B8EF0582AD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="84" windowWidth="18924" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>
@@ -97,12 +97,6 @@
     <t/>
   </si>
   <si>
-    <t>A1286705</t>
-  </si>
-  <si>
-    <t>A0732302</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -112,10 +106,22 @@
     <t>A</t>
   </si>
   <si>
+    <t>A1419201</t>
+  </si>
+  <si>
+    <t>A1419202</t>
+  </si>
+  <si>
     <t>100900112</t>
   </si>
   <si>
     <t>A1286705789</t>
+  </si>
+  <si>
+    <t>A0921201</t>
+  </si>
+  <si>
+    <t>A0921202</t>
   </si>
 </sst>
 </file>
@@ -502,7 +508,7 @@
   <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -606,24 +612,24 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="W3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>
@@ -612,7 +612,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="W2" t="s">
         <v>25</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="34">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Eclipse-WorkSpace\eclipse-workspace\IEQACode\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24327202-95FD-4D1B-963D-B8EF0582AD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E9CA1F-EDDD-4986-AB82-2C3AE2923017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Result ID</t>
   </si>
@@ -106,22 +106,19 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1419201</t>
-  </si>
-  <si>
-    <t>A1419202</t>
+    <t>A1521312</t>
+  </si>
+  <si>
+    <t>A1521311</t>
+  </si>
+  <si>
+    <t>QC Code</t>
   </si>
   <si>
     <t>100900112</t>
   </si>
   <si>
     <t>A1286705789</t>
-  </si>
-  <si>
-    <t>A0921201</t>
-  </si>
-  <si>
-    <t>A0921202</t>
   </si>
 </sst>
 </file>
@@ -164,8 +161,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -536,81 +534,84 @@
     <col min="24" max="24" customWidth="true" width="15.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -618,7 +619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -632,7 +633,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -640,8 +641,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:X1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Result ID</t>
   </si>

--- a/Excel/Sample Metadata Upload Template.xlsx
+++ b/Excel/Sample Metadata Upload Template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>Result ID</t>
   </si>
